--- a/Backend/libros.xlsx
+++ b/Backend/libros.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,43 +465,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Raul</t>
+          <t>Maria</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mavares </t>
+          <t>Mendosa</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Mentiroso</t>
+          <t>La bella y la bestia</t>
         </is>
       </c>
       <c r="E2" s="2" t="n">
-        <v>44419</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Raul</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mavares </t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Agregar</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="n">
         <v>44427</v>
       </c>
     </row>
